--- a/High School GPA, SAT, ACT, AP.xlsx
+++ b/High School GPA, SAT, ACT, AP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdere\Documents\GitHub\CS1980\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9DACB3-EFFE-46A6-8FCE-F2960F9E1E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F9F2D2B-9C35-425C-A9C3-C688EF5F799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{53701D98-E180-4EC1-BF67-B5242B035543}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1847B7-9297-43C2-8FAE-FB3D18192111}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,6 +575,78 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
